--- a/report/adrit/formatted_output.xlsx
+++ b/report/adrit/formatted_output.xlsx
@@ -243,6 +243,30 @@
           <val>
             <numRef>
               <f>'Report'!$D$6:$D$17</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Report'!E5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Report'!$A$6:$A$17</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Report'!$E$6:$E$17</f>
             </numRef>
           </val>
         </ser>
@@ -560,7 +584,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Total Sales by Gender</a:t>
+              <a:t>Sales Distribution by Gender</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -46106,197 +46130,238 @@
           <t>Electronics</t>
         </is>
       </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Grand Total</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>April</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>12430</v>
+        <v>11905</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13125</v>
+        <v>13940</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9895</v>
+        <v>8025</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>33870</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>August</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>14035</v>
+        <v>9790</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>14560</v>
+        <v>12455</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>15465</v>
+        <v>14715</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>36960</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>December</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>10545</v>
+        <v>12400</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15065</v>
+        <v>12070</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3380</v>
+        <v>20220</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>44690</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>February</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>11905</v>
+        <v>14035</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13940</v>
+        <v>14560</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8025</v>
+        <v>15465</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>44060</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>12450</v>
+        <v>12430</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>17455</v>
+        <v>13125</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>23245</v>
+        <v>9895</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>35450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>July</t>
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>10995</v>
+        <v>16090</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10170</v>
+        <v>8250</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15550</v>
+        <v>11125</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>35465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>July</t>
+          <t>June</t>
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>16090</v>
+        <v>10995</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8250</v>
+        <v>10170</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11125</v>
+        <v>15550</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>36715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>August</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>9790</v>
+        <v>10545</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>12455</v>
+        <v>15065</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>14715</v>
+        <v>3380</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>28990</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>6320</v>
+        <v>12450</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9975</v>
+        <v>17455</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7325</v>
+        <v>23245</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>53150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>15355</v>
+        <v>9700</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13315</v>
+        <v>15200</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17910</v>
+        <v>10020</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>34920</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>9700</v>
+        <v>15355</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>15200</v>
+        <v>13315</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>10020</v>
+        <v>17910</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>46580</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>September</t>
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>12400</v>
+        <v>6320</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>12070</v>
+        <v>9975</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20220</v>
+        <v>7325</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>23620</v>
       </c>
     </row>
     <row r="22">
@@ -46430,7 +46495,7 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Total Sales by Gender</t>
+          <t>Sales Distribution by Gender</t>
         </is>
       </c>
     </row>
@@ -46442,7 +46507,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Amount</t>
         </is>
       </c>
     </row>
